--- a/linux_tips.xlsx
+++ b/linux_tips.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="useful_commands" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="199">
   <si>
     <t xml:space="preserve">Command</t>
   </si>
@@ -545,6 +545,12 @@
     <t xml:space="preserve">disable ssh DNS lookup</t>
   </si>
   <si>
+    <t xml:space="preserve">MACHINE_ESSENTIAL_EXTRA_RRECOMMENDS += "kernel-modules"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to include kernel modules</t>
+  </si>
+  <si>
     <t xml:space="preserve">weston.ini</t>
   </si>
   <si>
@@ -728,6 +734,12 @@
   </si>
   <si>
     <t xml:space="preserve">see your virtual queue file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/proc/sys/fs/mqueue/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modify queue limits</t>
   </si>
 </sst>
 </file>
@@ -1421,15 +1433,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="65.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="65.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
@@ -1544,6 +1556,14 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1577,58 +1597,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1667,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1665,127 +1685,135 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/linux_tips.xlsx
+++ b/linux_tips.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="useful_commands" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="212">
   <si>
     <t xml:space="preserve">Command</t>
   </si>
@@ -306,7 +306,6 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">gcc </t>
     </r>
@@ -316,7 +315,6 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -325,7 +323,6 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -335,7 +332,6 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -344,7 +340,6 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">search-dirs</t>
     </r>
@@ -450,6 +445,19 @@
   </si>
   <si>
     <t xml:space="preserve">show partition info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lsmod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show the status of modules in the Linux Kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lspci
+lspci -vvv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list all PCI devices</t>
   </si>
   <si>
     <t xml:space="preserve">bitbake-layers create-layer meta-mylayer
@@ -486,14 +494,6 @@
     <t xml:space="preserve">sample image recipe</t>
   </si>
   <si>
-    <t xml:space="preserve">Configure Minicom → Serial Port Setup
-Serial Device : /dev/ttyS0
-Hardware Flow Control : No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minicom</t>
-  </si>
-  <si>
     <t xml:space="preserve">bitbake -c clean python-native</t>
   </si>
   <si>
@@ -548,7 +548,30 @@
     <t xml:space="preserve">MACHINE_ESSENTIAL_EXTRA_RRECOMMENDS += "kernel-modules"</t>
   </si>
   <si>
-    <t xml:space="preserve">to include kernel modules</t>
+    <t xml:space="preserve">Add to local.conf to download kernel headers code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOOLCHAIN_TARGET_TASK_append = " kernel-devsrc”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devtool modify linux-yocto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkouts kernel code into sdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git format-patch -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creates patch file from last commit.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitbake linux-yocto -c kernel_configme -f
+bitbake linux-yocto -c menuconfig
+bitbake linux-yocto -c diffconfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configure kernel and create configuration fragments</t>
   </si>
   <si>
     <t xml:space="preserve">weston.ini</t>
@@ -577,31 +600,31 @@
   <si>
     <t xml:space="preserve">/usr/share/X11/xorg.conf.d/xorg.conf
 Section "ServerLayout"
-	Identifier     "X.org Configured"
-	Screen      0  "Screen0" 0 0
-	InputDevice    "Mouse0" "CorePointer"
-	InputDevice    "Keyboard0" "CoreKeyboard"
+Identifier     "X.org Configured"
+Screen      0  "Screen0" 0 0
+InputDevice    "Mouse0" "CorePointer"
+InputDevice    "Keyboard0" "CoreKeyboard"
 EndSection
 Section "Monitor"
-	Identifier   "VGA-1"
-	VendorName   "HP"
-	ModelName    "LA1905wg"
+Identifier   "VGA-1"
+VendorName   "HP"
+ModelName    "LA1905wg"
 EndSection
 Section "Monitor"
-	Identifier   "LVDS-1"
-	VendorName   "Monitor Vendor"
-	ModelName    "Monitor Model"
+Identifier   "LVDS-1"
+VendorName   "Monitor Vendor"
+ModelName    "Monitor Model"
         Option       "Ignore"        "true"
         Option       "Enable"        "false"
 EndSection
 Section "Screen"
-	Identifier "Screen0"
-	Device     "Card0"
-	Monitor    "VGA-1"
-	SubSection "Display"
-		Depth     24
+Identifier "Screen0"
+Device     "Card0"
+Monitor    "VGA-1"
+SubSection "Display"
+Depth     24
                 Modes     "1440x900" "1280x1024" "1024x768"
-	EndSubSection
+EndSubSection
 EndSection</t>
   </si>
   <si>
@@ -649,16 +672,16 @@
     <t xml:space="preserve">cvlv -vvv buka.mp4 –sout “#rtp{dst=239.255.0.1, port=5004, mux=ts}</t>
   </si>
   <si>
-    <t xml:space="preserve">ffmpeg -re -i buka.mp4 -f mpegts udp://192.168.1.101:1234</t>
+    <t xml:space="preserve">ffmpeg -re -i buka.mp4 -f mpegts udp://192.168.1.104:1234</t>
   </si>
   <si>
     <t xml:space="preserve">ffmpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">ffmpeg -re -i buka.mp4 -r 16 -f mpegts udp://192.168.1.101:1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffmpeg -i buka.mp4 -b:v 500k -f mpegts udp://192.168.1.101:1234</t>
+    <t xml:space="preserve">ffmpeg -re -i buka.mp4 -r 16 -f mpegts udp://192.168.1.104:1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffmpeg -i buka.mp4 -b:v 500k -f mpegts udp://192.168.1.104:1234</t>
   </si>
   <si>
     <t xml:space="preserve">-re flag means to read input at native frame rate
@@ -741,6 +764,20 @@
   <si>
     <t xml:space="preserve">modify queue limits</t>
   </si>
+  <si>
+    <t xml:space="preserve">cat /proc/config.gz | gunzip &gt; running.config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain kernel config from currently running Linux system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure Minicom → Serial Port Setup
+Serial Device : /dev/ttyS0
+Hardware Flow Control : No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minicom</t>
+  </si>
 </sst>
 </file>
 
@@ -749,12 +786,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -772,35 +808,151 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -808,8 +960,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -833,21 +1000,72 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -860,14 +1078,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -876,10 +1171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1415,6 +1710,22 @@
       </c>
       <c r="B66" s="1" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1433,137 +1744,158 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="65.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="118.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="118.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1917,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1597,58 +1929,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1667,16 +1999,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -1685,135 +2017,151 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/linux_tips.xlsx
+++ b/linux_tips.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="useful_commands" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="238">
   <si>
     <t xml:space="preserve">Command</t>
   </si>
@@ -460,6 +460,48 @@
     <t xml:space="preserve">list all PCI devices</t>
   </si>
   <si>
+    <t xml:space="preserve">ss -s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show sockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ss -u -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show all udp sockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ss -t -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show all tcp sockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lsof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list open files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lsof /dev/sdb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list open files on device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lsof -i 4 -a -p 1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list all open IPv4 network files in use by the process whose PID is 1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkfs.vfat /dev/sda1 -n INNODISK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkfs fat format</t>
+  </si>
+  <si>
     <t xml:space="preserve">bitbake-layers create-layer meta-mylayer
 bitbake-layers add-layer meta-mylayer</t>
   </si>
@@ -560,18 +602,75 @@
     <t xml:space="preserve">checkouts kernel code into sdk</t>
   </si>
   <si>
-    <t xml:space="preserve">git format-patch -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creates patch file from last commit.      </t>
-  </si>
-  <si>
     <t xml:space="preserve">bitbake linux-yocto -c kernel_configme -f
 bitbake linux-yocto -c menuconfig
-bitbake linux-yocto -c diffconfig</t>
+bitbake linux-yocto -c diffconfig
+bitbake linux-yocto -c kernel_configcheck -f</t>
   </si>
   <si>
     <t xml:space="preserve">configure kernel and create configuration fragments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git format-patch -1 filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creates patch file from last commit.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git diff filename &gt; patch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for unstaged changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git diff –cached filename &gt; patch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for staged changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git apply mypatch.patch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply the patch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># S = "${WORKDIR}"
+# ${S} : /home/pilot/yocto/master/poky/build_gidi/tmp/work/corei7-64-poky-linux/gidi/1.0-r0
+# ${D} : ${S}/image
+SUMMARY = "GIDI application"
+LICENSE = "CLOSED"
+DEPENDS = " boost opencv dlib"
+FILESEXTRAPATHS_prepend := "${THISDIR}/${PN}/src:"
+SRC_URI = "file://*.*"
+S = "${WORKDIR}"
+INCLUDES = "-I${S}/recipe-sysroot/usr/include"
+LFLAGS   = "-I${S}/recipe-sysroot/usr/lib"
+CXXFLAGS_prepend = "${INCLUDES} "
+EXTRA_OEMAKE = "'CC=${CXX}' 'RANLIB=${RANLIB}' 'AR=${AR}' 'LFLAGS=${LFLAGS}' 'CFLAGS=${CXXFLAGS} -DWITHOUT_XATTR' 'BUILDDIR=${S}'"
+do_install() {
+install -d -m 0755 ${D}/home/root/gidi
+install -p -m 0755 ${S}/gidi                        ${D}/home/root/gidi
+install -p -m 0755 ${THISDIR}/${PN}/data/mask/*     ${D}/home/root/gidi
+install -p -m 0755 ${THISDIR}/${PN}/data/template/* ${D}/home/root/gidi
+install -p -m 0755 ${THISDIR}/${PN}/data/train/*    ${D}/home/root/gidi
+install -p -m 0755 ${THISDIR}/${PN}/data/video/*    ${D}/home/root/gidi
+}
+FILES_${PN} = "/home/root/gidi/*"
+INSANE_SKIP_${PN} = "ldflags"
+#INSANE_SKIP_${PN} += "installed-vs-shipped"
+#TARGET_CC_ARCH += "${LDFLAGS}"
+#INSANE_SKIP_${PN} = "ldflags"
+#INSANE_SKIP_${PN}-dev = "ldflags" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KERNEL_MODULE_AUTOLOAD += "module_name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lists kernel modules that need to be auto-loaded during boot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACHINE_ESSENTIAL_EXTRA_RRECOMMENDS += "kernel-module-ab123"</t>
   </si>
   <si>
     <t xml:space="preserve">weston.ini</t>
@@ -681,7 +780,7 @@
     <t xml:space="preserve">ffmpeg -re -i buka.mp4 -r 16 -f mpegts udp://192.168.1.104:1234</t>
   </si>
   <si>
-    <t xml:space="preserve">ffmpeg -i buka.mp4 -b:v 500k -f mpegts udp://192.168.1.104:1234</t>
+    <t xml:space="preserve">ffmpeg -re -i buka.mp4 -b:v 550k -f mpegts udp://192.168.1.104:1234</t>
   </si>
   <si>
     <t xml:space="preserve">-re flag means to read input at native frame rate
@@ -777,6 +876,13 @@
   </si>
   <si>
     <t xml:space="preserve">minicom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo groupadd docker
+sudo usermod -aG docker $USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a user group and add a user to this group</t>
   </si>
 </sst>
 </file>
@@ -1171,10 +1277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1726,6 +1832,62 @@
       </c>
       <c r="B68" s="1" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1744,158 +1906,200 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="65.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="118.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="401.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1916,8 +2120,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1929,58 +2133,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1999,10 +2203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2017,151 +2221,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/linux_tips.xlsx
+++ b/linux_tips.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="useful_commands" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="yocto" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Xorg_ssh" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="general" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BIOS" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="301">
   <si>
     <t xml:space="preserve">Command</t>
   </si>
@@ -306,6 +307,7 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">gcc </t>
     </r>
@@ -315,6 +317,7 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -323,6 +326,7 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">print</t>
     </r>
@@ -332,6 +336,7 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -340,6 +345,7 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">search-dirs</t>
     </r>
@@ -500,6 +506,37 @@
   </si>
   <si>
     <t xml:space="preserve">mkfs fat format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrt -m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduling policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git config --get remote.origin.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Git repo url using absolute path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat /proc/1/exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemv, systemd, upstart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl + Z
+bg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">send process to background than start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get process to foreground</t>
   </si>
   <si>
     <t xml:space="preserve">bitbake-layers create-layer meta-mylayer
@@ -671,6 +708,47 @@
   </si>
   <si>
     <t xml:space="preserve">MACHINE_ESSENTIAL_EXTRA_RRECOMMENDS += "kernel-module-ab123"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wic create mkefidisk-2-parts -e core-image-lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create wic image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo bmaptool copy mkefidisk-2-parts-201903291650-sda.direct /dev/sda –nobmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bmaptool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitbake -e | grep ^WKS_FILE=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find wks file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inherit extrausers
+ROOT_PASSWORD = "ukb123"
+OFP_PASSWORD = "ukb123"
+EXTRA_USERS_PARAMS = "\
+	groupadd ofpgroup; \
+	useradd -p `openssl passwd ${OFP_PASSWORD}` ofpuser; \
+	useradd -g ofpgroup ofpuser; \
+	usermod -p `openssl passwd ${ROOT_PASSWORD}` root; \
+	"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitbake -e imagename | grep "^DISTRO_FEATURES"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://downloads.yoctoproject.org/releases/eclipse-plugin/2.6.1/oxygen/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eclipse yocto plugin</t>
   </si>
   <si>
     <t xml:space="preserve">weston.ini</t>
@@ -786,7 +864,8 @@
     <t xml:space="preserve">-re flag means to read input at native frame rate
 -vcodec libx264 sets the video codec 
 -r 25 set the frame rate 
--b:v 500k set the video bit rate</t>
+-b:v 500k set the video bit rate
+-vcodec copy  means use same codec format</t>
   </si>
   <si>
     <t xml:space="preserve">cat &gt; gidiStart.sh      (/home/root/gidi/test1)
@@ -884,6 +963,137 @@
   <si>
     <t xml:space="preserve">create a user group and add a user to this group</t>
   </si>
+  <si>
+    <t xml:space="preserve">Total number of priorities = 140
+Real time priority range(PR or PRI):  0 to 99 
+User space priority range: 100 to 139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linux processpriorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/etc/security/limits.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set the default nice value of a particular user or group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xdpyinfo  | grep 'dimensions:'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use xdpyinfo command to find out current screen resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xrandr | grep '*'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffplay -f h264 udp://192.168.1.103:47002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">play raw h264 from ffplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffplay -f h264 -codec:v h264 tcp://addr:port?listen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vlc --network-caching 0 –demux h264 udp://@192.168.1.103:47002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">play raw h264 from vlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vlc --network-caching=0 --clock-jitter=0 --demux=h264 udp://@192.168.1.103:47002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vlc --network-caching 1000 --satip-buffer=60000 --demux h264 udp://@192.168.1.103:47002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo "1" &gt; /sys/bus/pci/devices/DDDD\:BB\:DD.F//remove
+sleep 1
+echo "1" &gt; /sys/bus/pci/rescan
+where DDDD.BB.DD.F = Domain:Bus:Device.Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove and rescan will allow the kernel to cycler-power the PCI device without reboot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCM-3365 BIOS Setings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable Hibernation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACPI Sleep State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPM Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU C State Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it is Windows 7, it can’t reboot or poweroff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS2 Devices Spport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it is disabled, it causes uart unknown issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCM-3363 BIOS Setings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel C-STATE tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDE Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATA/IDE Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure SATA as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDE</t>
+  </si>
 </sst>
 </file>
 
@@ -892,11 +1102,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -914,151 +1125,61 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1066,23 +1187,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1106,72 +1212,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,96 +1234,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1277,10 +1271,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1888,6 +1882,46 @@
       </c>
       <c r="B75" s="1" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1906,203 +1940,251 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="65.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="118.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="401.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="109.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1" display="http://downloads.yoctoproject.org/releases/eclipse-plugin/2.6.1/oxygen/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2133,58 +2215,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>190</v>
+        <v>210</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>192</v>
+        <v>212</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>194</v>
+        <v>214</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>196</v>
+        <v>216</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>198</v>
+      <c r="A5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>200</v>
+      <c r="A6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>202</v>
+        <v>222</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2203,16 +2285,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -2221,162 +2303,239 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="128.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A28" r:id="rId1" display="vlc --network-caching=0 --clock-jitter=0 --demux=h264 udp://@192.168.1.103:47002"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2385,4 +2544,171 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/linux_tips.xlsx
+++ b/linux_tips.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="useful_commands" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="328">
   <si>
     <t xml:space="preserve">Command</t>
   </si>
@@ -539,6 +539,50 @@
     <t xml:space="preserve">get process to foreground</t>
   </si>
   <si>
+    <t xml:space="preserve">basename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strip directory and suffix from filenames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du -sh /lib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show size of a directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">networkctl list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to see if systemd-networkd is managing the device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a file /etc/systemd/network/10-eth0-static.network
+[Match]
+Name=eth0
+[Network]
+Address=192.168.1.210
+Gateway=192.168.1.1
+DNS=192.168.1.1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set IP in systemd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo systemctl restart networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemd restart networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo /etc/init.d/networking stop
+sudo /etc/init.d/networking start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemv restart networking</t>
+  </si>
+  <si>
     <t xml:space="preserve">bitbake-layers create-layer meta-mylayer
 bitbake-layers add-layer meta-mylayer</t>
   </si>
@@ -749,6 +793,26 @@
   </si>
   <si>
     <t xml:space="preserve">eclipse yocto plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CONFIG_FILE_LOCKING is not set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you remove CONFIG_FILE_LOCKING from kernel, you can not install image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIG_CAN_SJA1000=y
+CONFIG_CAN_PEAK_PCI=y
+CONFIG_CAN_PEAK_PCIEC=y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add to kernel for peak systems mini pci express can card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE_FEATURES_append = “ allow-root-login” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow ssh root login, updates PermitRootLogin to yes in sshd_config</t>
   </si>
   <si>
     <t xml:space="preserve">weston.ini</t>
@@ -993,7 +1057,13 @@
     <t xml:space="preserve">play raw h264 from ffplay</t>
   </si>
   <si>
+    <t xml:space="preserve">ffplay -f mpegts udp://192.168.1.103:47002</t>
+  </si>
+  <si>
     <t xml:space="preserve">ffplay -f h264 -codec:v h264 tcp://addr:port?listen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vlc --network-caching 0 –demux mpegts udp://@192.168.1.103:47002</t>
   </si>
   <si>
     <t xml:space="preserve">vlc --network-caching 0 –demux h264 udp://@192.168.1.103:47002</t>
@@ -1017,6 +1087,28 @@
     <t xml:space="preserve">remove and rescan will allow the kernel to cycler-power the PCI device without reboot</t>
   </si>
   <si>
+    <t xml:space="preserve">sudo systemctl stop ModemManager.service
+sudo systemctl disable ModemManager.service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModemManager interferes with USB tethering, and can be disabled with:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat /lib/modules/4.15.0-54-generic/modules.symbols
+cat /proc/modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/etc/ssh/sshd_config
+Uncomment 
+#PermitRootLogin yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolve ssh connection error</t>
+  </si>
+  <si>
     <t xml:space="preserve">PCM-3365 BIOS Setings</t>
   </si>
   <si>
@@ -1078,6 +1170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Intel C-STATE tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Speedstep tech</t>
   </si>
   <si>
     <t xml:space="preserve">IDE Configuration</t>
@@ -1153,6 +1248,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1164,11 +1265,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1238,12 +1334,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1271,16 +1367,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -1922,6 +2018,54 @@
       </c>
       <c r="B80" s="1" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="99.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1940,245 +2084,269 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="118.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="401.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="109.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2215,58 +2383,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>211</v>
+        <v>228</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>213</v>
+        <v>230</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>215</v>
+        <v>232</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>217</v>
+        <v>234</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>219</v>
+      <c r="A5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>221</v>
+      <c r="A6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>223</v>
+        <v>240</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2285,16 +2453,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -2303,238 +2471,272 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="128.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>270</v>
+      <c r="A27" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>270</v>
+      <c r="A28" s="0" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>272</v>
+      <c r="A29" s="0" t="s">
+        <v>289</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>274</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A28" r:id="rId1" display="vlc --network-caching=0 --clock-jitter=0 --demux=h264 udp://@192.168.1.103:47002"/>
+    <hyperlink ref="A30" r:id="rId1" display="vlc --network-caching=0 --clock-jitter=0 --demux=h264 udp://@192.168.1.103:47002"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2551,15 +2753,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
@@ -2568,138 +2770,152 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>275</v>
+      <c r="A1" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>290</v>
+        <v>317</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>293</v>
+      <c r="A10" s="9" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>280</v>
+        <v>320</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>296</v>
+        <v>320</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>296</v>
+        <v>320</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>300</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/linux_tips.xlsx
+++ b/linux_tips.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="331">
   <si>
     <t xml:space="preserve">Command</t>
   </si>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">MACHINE_ESSENTIAL_EXTRA_RRECOMMENDS += "kernel-modules"</t>
   </si>
   <si>
-    <t xml:space="preserve">Add to local.conf to download kernel headers code</t>
+    <t xml:space="preserve">Add to machine.conf to download kernel headers code</t>
   </si>
   <si>
     <t xml:space="preserve">TOOLCHAIN_TARGET_TASK_append = " kernel-devsrc”</t>
@@ -745,6 +745,53 @@
 #INSANE_SKIP_${PN}-dev = "ldflags" </t>
   </si>
   <si>
+    <t xml:space="preserve">sample recipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILESEXTRAPATHS_prepend := "${THISDIR}/${PN}:"
+SRC_URI = "file://*.*"
+S = "${WORKDIR}"
+inherit useradd update-rc.d
+#ofp application shall run under "ofpuser:ofpgroup"
+USERADD_PACKAGES = "${PN}"
+USERADD_PARAM_${PN} = "-g ofpgroup -d /home/ofpuser ofpuser"
+GROUPADD_PARAM_${PN} = "ofpgroup"
+EXTRA_OEMAKE = "'CC=${CC}' 'RANLIB=${RANLIB}' 'AR=${AR}' 'CFLAGS=${CFLAGS} -I${S}/include -DWITHOUT_XATTR' 'BUILDDIR=${S}'"
+do_install () {
+	install -d ${D}${sysconfdir}/init.d
+	install -d -m 0755 ${D}/home/ofpuser/tftp
+	install -d -m 0755 ${D}/home/ofpuser
+	install -p -m 0755 ${S}/bin/ofp ${D}/home/ofpuser
+	install -p -m 0755 ${S}/etc/start-ofp.sh ${D}${sysconfdir}/init.d
+	install -p -m 0755 ${S}/etc/zero-timeout.sh ${D}/home/ofpuser
+	chown -R ofpuser ${D}/home/ofpuser 
+	chgrp -R ofpgroup ${D}/home/ofpuser
+}
+INITSCRIPT_NAME = "start-ofp.sh"
+INITSCRIPT_PARAMS = "start 99 5 ."
+FILES_${PN} = "/home/ofpuser/* /etc/init.d/*"
+INSANE_SKIP_${PN} = "ldflags"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sample </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">initscript </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">KERNEL_MODULE_AUTOLOAD += "module_name"</t>
   </si>
   <si>
@@ -772,18 +819,43 @@
     <t xml:space="preserve">find wks file</t>
   </si>
   <si>
-    <t xml:space="preserve">inherit extrausers
-ROOT_PASSWORD = "ukb123"
-OFP_PASSWORD = "ukb123"
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">inherit extrausers
+ROOT_PASSWORD = "12345"
+OFP_PASSWORD = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">12345</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"
 EXTRA_USERS_PARAMS = "\
 	groupadd ofpgroup; \
 	useradd -p `openssl passwd ${OFP_PASSWORD}` ofpuser; \
 	useradd -g ofpgroup ofpuser; \
 	usermod -p `openssl passwd ${ROOT_PASSWORD}` root; \
 	"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set password</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">set password in image file</t>
   </si>
   <si>
     <t xml:space="preserve">bitbake -e imagename | grep "^DISTRO_FEATURES"</t>
@@ -1197,7 +1269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1238,6 +1310,11 @@
       <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1309,7 +1386,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1334,7 +1411,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1342,11 +1423,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2084,10 +2165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2266,92 +2347,103 @@
       <c r="A22" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="333.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>209</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="109.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
         <v>217</v>
       </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
         <v>219</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="109.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>221</v>
+      <c r="A30" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>222</v>
+      <c r="A31" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
         <v>224</v>
       </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
         <v>226</v>
       </c>
+    </row>
+    <row r="33" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="http://downloads.yoctoproject.org/releases/eclipse-plugin/2.6.1/oxygen/"/>
+    <hyperlink ref="A31" r:id="rId1" display="http://downloads.yoctoproject.org/releases/eclipse-plugin/2.6.1/oxygen/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2383,58 +2475,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>237</v>
+      <c r="A5" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>239</v>
+      <c r="A6" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2471,267 +2563,267 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="128.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>291</v>
+      <c r="A30" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2770,152 +2862,152 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>301</v>
+      <c r="A1" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>319</v>
+      <c r="A10" s="10" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/linux_tips.xlsx
+++ b/linux_tips.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="useful_commands" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="339">
   <si>
     <t xml:space="preserve">Command</t>
   </si>
@@ -583,6 +583,18 @@
     <t xml:space="preserve">systemv restart networking</t>
   </si>
   <si>
+    <t xml:space="preserve">date -s “29 NOV 2020 13:53:00”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set system date and time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hwclock –systohc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write system date and time to hwclock</t>
+  </si>
+  <si>
     <t xml:space="preserve">bitbake-layers create-layer meta-mylayer
 bitbake-layers add-layer meta-mylayer</t>
   </si>
@@ -683,10 +695,10 @@
     <t xml:space="preserve">checkouts kernel code into sdk</t>
   </si>
   <si>
-    <t xml:space="preserve">bitbake linux-yocto -c kernel_configme -f
-bitbake linux-yocto -c menuconfig
-bitbake linux-yocto -c diffconfig
-bitbake linux-yocto -c kernel_configcheck -f</t>
+    <t xml:space="preserve">bitbake linux-yocto-rt -c kernel_configme -f
+bitbake linux-yocto-rt -c menuconfig
+bitbake linux-yocto-rt -c diffconfig
+bitbake linux-yocto-rt -c kernel_configcheck -f</t>
   </si>
   <si>
     <t xml:space="preserve">configure kernel and create configuration fragments</t>
@@ -773,23 +785,7 @@
 INSANE_SKIP_${PN} = "ldflags"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sample </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">initscript </t>
-    </r>
+    <t xml:space="preserve">sample initscript </t>
   </si>
   <si>
     <t xml:space="preserve">KERNEL_MODULE_AUTOLOAD += "module_name"</t>
@@ -819,40 +815,15 @@
     <t xml:space="preserve">find wks file</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">inherit extrausers
+    <t xml:space="preserve">inherit extrausers
 ROOT_PASSWORD = "12345"
-OFP_PASSWORD = "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">12345</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"
+OFP_PASSWORD = "12345"
 EXTRA_USERS_PARAMS = "\
 	groupadd ofpgroup; \
 	useradd -p `openssl passwd ${OFP_PASSWORD}` ofpuser; \
 	useradd -g ofpgroup ofpuser; \
 	usermod -p `openssl passwd ${ROOT_PASSWORD}` root; \
 	"</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">set password in image file</t>
@@ -885,6 +856,21 @@
   </si>
   <si>
     <t xml:space="preserve">allow ssh root login, updates PermitRootLogin to yes in sshd_config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bitbake -c unpack virtual/kernel
+$ mkdir -p ../local_repos/linux-2.6-imx
+$ cp -a tmp/work-shared/var-som-mx6/kernel-source/. ../local_repos/linux-2.6-imx
+$ cd ../local_repos/linux-2.6-imx
+$ git reset --hard
+$ git clean -fdx
+$ cd ~/var-fslc-yocto/local_repos/linux-2.6-imx
+$ gedit arch/arm/boot/dts/imx6qdl-var-som.dtsi
+edit and save
+$ git diff &gt; my_device_tree_changes.diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a kernel patch file</t>
   </si>
   <si>
     <t xml:space="preserve">weston.ini</t>
@@ -1123,6 +1109,14 @@
     <t xml:space="preserve">xrandr | grep '*'</t>
   </si>
   <si>
+    <t xml:space="preserve">ffplay -sync ext -analyzeduration 0 -fflags nobuffer -flags low_delay -probesize 32 -f mpegts udp://192.168.1.103:47002
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffplay -fflags nobuffer -flags low_delay -probesize 32 -f mpegts udp://192.168.1.103:47002
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ffplay -f h264 udp://192.168.1.103:47002</t>
   </si>
   <si>
@@ -1269,7 +1263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1310,11 +1304,6 @@
       <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1386,7 +1375,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1411,11 +1400,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1423,42 +1408,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,6 +2132,22 @@
       </c>
       <c r="B86" s="1" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2161,284 +2162,292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="118.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="40.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="401.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="333.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="109.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>223</v>
+      <c r="A31" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>227</v>
+      <c r="A33" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="128.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2466,67 +2475,66 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>238</v>
+        <v>243</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="361.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>240</v>
+      <c r="A5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>242</v>
+      <c r="A6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>244</v>
+        <v>249</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2541,21 +2549,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="96.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,272 +2571,282 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="128.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>291</v>
+      <c r="A28" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>293</v>
+      <c r="A29" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>293</v>
+      <c r="A30" s="0" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>295</v>
+      <c r="A31" s="0" t="s">
+        <v>300</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="30.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="vlc --network-caching=0 --clock-jitter=0 --demux=h264 udp://@192.168.1.103:47002"/>
+    <hyperlink ref="A32" r:id="rId1" display="vlc --network-caching=0 --clock-jitter=0 --demux=h264 udp://@192.168.1.103:47002"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2841,7 +2859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2851,163 +2869,161 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>304</v>
+      <c r="A1" s="9" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>322</v>
+      <c r="A10" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
